--- a/my_starting_ranges.xlsx
+++ b/my_starting_ranges.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomascantur/Documents/MIT/Pokerbots/2025/pokerbots-frijolbot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3C012104-CE2A-BD4D-9B99-6B03172A91D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{CEAE4EC4-D5CF-444A-8324-6854D80C7273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6640" yWindow="500" windowWidth="29200" windowHeight="19140" xr2:uid="{D19F07FF-097A-2942-B0BE-D3EF8A4C276A}"/>
+    <workbookView xWindow="260" yWindow="500" windowWidth="35580" windowHeight="19140" xr2:uid="{D19F07FF-097A-2942-B0BE-D3EF8A4C276A}"/>
   </bookViews>
   <sheets>
     <sheet name="my_starting_ranges" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="17">
   <si>
     <t>opening_range</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>BB_raise_to_limp_range</t>
+  </si>
+  <si>
+    <t>Opponent_limp_range</t>
   </si>
 </sst>
 </file>
@@ -937,10 +940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DA0AE69-9547-634E-BDCF-36C8230A4959}">
-  <dimension ref="A1:AB165"/>
+  <dimension ref="A1:AB180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="AA168" sqref="AA168"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="C171" sqref="C171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13733,47 +13736,1269 @@
         <v>0.2</v>
       </c>
       <c r="P165">
+        <v>0</v>
+      </c>
+      <c r="Q165">
+        <v>0</v>
+      </c>
+      <c r="R165">
+        <v>0</v>
+      </c>
+      <c r="S165">
+        <v>0</v>
+      </c>
+      <c r="T165">
+        <v>0</v>
+      </c>
+      <c r="U165">
+        <v>0</v>
+      </c>
+      <c r="V165">
+        <v>0</v>
+      </c>
+      <c r="W165">
+        <v>0</v>
+      </c>
+      <c r="X165">
+        <v>0</v>
+      </c>
+      <c r="Y165">
+        <v>0</v>
+      </c>
+      <c r="Z165">
+        <v>0</v>
+      </c>
+      <c r="AA165">
+        <v>0</v>
+      </c>
+      <c r="AB165">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="167" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B167" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G167" s="2">
+        <v>9</v>
+      </c>
+      <c r="H167" s="2">
+        <v>8</v>
+      </c>
+      <c r="I167" s="2">
+        <v>7</v>
+      </c>
+      <c r="J167" s="2">
+        <v>6</v>
+      </c>
+      <c r="K167" s="2">
+        <v>5</v>
+      </c>
+      <c r="L167" s="2">
+        <v>4</v>
+      </c>
+      <c r="M167" s="2">
+        <v>3</v>
+      </c>
+      <c r="N167" s="2">
+        <v>2</v>
+      </c>
+      <c r="O167" s="2"/>
+      <c r="P167" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q167" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R167" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S167" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T167" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U167" s="2">
+        <v>9</v>
+      </c>
+      <c r="V167" s="2">
+        <v>8</v>
+      </c>
+      <c r="W167" s="2">
+        <v>7</v>
+      </c>
+      <c r="X167" s="2">
+        <v>6</v>
+      </c>
+      <c r="Y167" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z167" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA167" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB167" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>0.5</v>
+      </c>
+      <c r="H168">
+        <v>0.5</v>
+      </c>
+      <c r="I168">
+        <v>0.5</v>
+      </c>
+      <c r="J168">
+        <v>0.5</v>
+      </c>
+      <c r="K168">
+        <v>0.5</v>
+      </c>
+      <c r="L168">
+        <v>0.5</v>
+      </c>
+      <c r="M168">
+        <v>0.5</v>
+      </c>
+      <c r="N168">
+        <v>0.5</v>
+      </c>
+      <c r="P168">
+        <v>0</v>
+      </c>
+      <c r="Q168">
+        <v>0</v>
+      </c>
+      <c r="R168">
+        <v>0</v>
+      </c>
+      <c r="S168">
+        <v>0</v>
+      </c>
+      <c r="T168">
+        <v>0</v>
+      </c>
+      <c r="U168">
+        <v>0</v>
+      </c>
+      <c r="V168">
+        <v>0</v>
+      </c>
+      <c r="W168">
+        <v>0</v>
+      </c>
+      <c r="X168">
+        <v>0</v>
+      </c>
+      <c r="Y168">
+        <v>0.25</v>
+      </c>
+      <c r="Z168">
+        <v>0.35</v>
+      </c>
+      <c r="AA168">
+        <v>0.35</v>
+      </c>
+      <c r="AB168">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="169" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>0.25</v>
+      </c>
+      <c r="H169">
+        <v>0.5</v>
+      </c>
+      <c r="I169">
+        <v>0.5</v>
+      </c>
+      <c r="J169">
+        <v>0.65</v>
+      </c>
+      <c r="K169">
+        <v>0.65</v>
+      </c>
+      <c r="L169">
+        <v>0.8</v>
+      </c>
+      <c r="M169">
+        <v>0.8</v>
+      </c>
+      <c r="N169">
+        <v>0.8</v>
+      </c>
+      <c r="P169">
+        <v>0</v>
+      </c>
+      <c r="Q169">
+        <v>0</v>
+      </c>
+      <c r="R169">
+        <v>0</v>
+      </c>
+      <c r="S169">
+        <v>0</v>
+      </c>
+      <c r="T169">
+        <v>0</v>
+      </c>
+      <c r="U169">
+        <v>0</v>
+      </c>
+      <c r="V169">
+        <v>0</v>
+      </c>
+      <c r="W169">
+        <v>0.15</v>
+      </c>
+      <c r="X169">
+        <v>0.2</v>
+      </c>
+      <c r="Y169">
+        <v>0.2</v>
+      </c>
+      <c r="Z169">
+        <v>0.4</v>
+      </c>
+      <c r="AA169">
+        <v>0.4</v>
+      </c>
+      <c r="AB169">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <v>0.5</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>0.25</v>
+      </c>
+      <c r="H170">
+        <v>0.5</v>
+      </c>
+      <c r="I170">
+        <v>0.5</v>
+      </c>
+      <c r="J170">
+        <v>0.65</v>
+      </c>
+      <c r="K170">
+        <v>0.65</v>
+      </c>
+      <c r="L170">
+        <v>0.8</v>
+      </c>
+      <c r="M170">
+        <v>1</v>
+      </c>
+      <c r="N170">
+        <v>1</v>
+      </c>
+      <c r="P170">
+        <v>0</v>
+      </c>
+      <c r="Q170">
+        <v>0.2</v>
+      </c>
+      <c r="R170">
+        <v>0</v>
+      </c>
+      <c r="S170">
+        <v>0</v>
+      </c>
+      <c r="T170">
+        <v>0</v>
+      </c>
+      <c r="U170">
+        <v>0</v>
+      </c>
+      <c r="V170">
+        <v>0</v>
+      </c>
+      <c r="W170">
+        <v>0.15</v>
+      </c>
+      <c r="X170">
+        <v>0.2</v>
+      </c>
+      <c r="Y170">
+        <v>0.4</v>
+      </c>
+      <c r="Z170">
+        <v>0.4</v>
+      </c>
+      <c r="AA170">
+        <v>1</v>
+      </c>
+      <c r="AB170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B171">
+        <v>0.5</v>
+      </c>
+      <c r="D171">
+        <v>0.6</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <v>0.25</v>
+      </c>
+      <c r="H171">
+        <v>0.5</v>
+      </c>
+      <c r="I171">
+        <v>0.5</v>
+      </c>
+      <c r="J171">
+        <v>0.65</v>
+      </c>
+      <c r="K171">
+        <v>0.8</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="M171">
+        <v>1</v>
+      </c>
+      <c r="N171">
+        <v>1</v>
+      </c>
+      <c r="P171">
+        <v>0.2</v>
+      </c>
+      <c r="Q171">
+        <v>0.4</v>
+      </c>
+      <c r="R171">
+        <v>0.4</v>
+      </c>
+      <c r="S171">
+        <v>0</v>
+      </c>
+      <c r="T171">
+        <v>0</v>
+      </c>
+      <c r="U171">
+        <v>0</v>
+      </c>
+      <c r="V171">
+        <v>0</v>
+      </c>
+      <c r="W171">
+        <v>0.15</v>
+      </c>
+      <c r="X171">
+        <v>0.2</v>
+      </c>
+      <c r="Y171">
+        <v>0.4</v>
+      </c>
+      <c r="Z171">
+        <v>1</v>
+      </c>
+      <c r="AA171">
+        <v>1</v>
+      </c>
+      <c r="AB171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B172">
+        <v>0.8</v>
+      </c>
+      <c r="C172">
+        <v>0.8</v>
+      </c>
+      <c r="D172">
+        <v>0.7</v>
+      </c>
+      <c r="E172">
+        <v>0.8</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>0.5</v>
+      </c>
+      <c r="J172">
+        <v>0.65</v>
+      </c>
+      <c r="K172">
+        <v>0.8</v>
+      </c>
+      <c r="L172">
+        <v>1</v>
+      </c>
+      <c r="M172">
+        <v>1</v>
+      </c>
+      <c r="N172">
+        <v>1</v>
+      </c>
+      <c r="P172">
+        <v>0.5</v>
+      </c>
+      <c r="Q172">
+        <v>0.5</v>
+      </c>
+      <c r="R172">
+        <v>0.6</v>
+      </c>
+      <c r="S172">
+        <v>0.5</v>
+      </c>
+      <c r="T172">
+        <v>0</v>
+      </c>
+      <c r="U172">
+        <v>0</v>
+      </c>
+      <c r="V172">
+        <v>0</v>
+      </c>
+      <c r="W172">
+        <v>0.15</v>
+      </c>
+      <c r="X172">
+        <v>0.2</v>
+      </c>
+      <c r="Y172">
+        <v>0.4</v>
+      </c>
+      <c r="Z172">
+        <v>1</v>
+      </c>
+      <c r="AA172">
+        <v>1</v>
+      </c>
+      <c r="AB172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
+        <v>9</v>
+      </c>
+      <c r="B173">
+        <v>0.8</v>
+      </c>
+      <c r="C173">
+        <v>0.8</v>
+      </c>
+      <c r="D173">
+        <v>0.8</v>
+      </c>
+      <c r="E173">
+        <v>0.8</v>
+      </c>
+      <c r="F173">
+        <v>0.8</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <v>0.25</v>
+      </c>
+      <c r="J173">
+        <v>0.5</v>
+      </c>
+      <c r="K173">
+        <v>0.8</v>
+      </c>
+      <c r="L173">
+        <v>1</v>
+      </c>
+      <c r="M173">
+        <v>1</v>
+      </c>
+      <c r="N173">
+        <v>1</v>
+      </c>
+      <c r="P173">
+        <v>0.6</v>
+      </c>
+      <c r="Q173">
+        <v>0.6</v>
+      </c>
+      <c r="R173">
+        <v>0.6</v>
+      </c>
+      <c r="S173">
+        <v>0.6</v>
+      </c>
+      <c r="T173">
+        <v>0.6</v>
+      </c>
+      <c r="U173">
+        <v>0</v>
+      </c>
+      <c r="V173">
+        <v>0</v>
+      </c>
+      <c r="W173">
         <v>0.1</v>
       </c>
-      <c r="Q165">
-        <v>0</v>
-      </c>
-      <c r="R165">
-        <v>0</v>
-      </c>
-      <c r="S165">
-        <v>0</v>
-      </c>
-      <c r="T165">
-        <v>0</v>
-      </c>
-      <c r="U165">
-        <v>0</v>
-      </c>
-      <c r="V165">
-        <v>0</v>
-      </c>
-      <c r="W165">
-        <v>0</v>
-      </c>
-      <c r="X165">
-        <v>0</v>
-      </c>
-      <c r="Y165">
-        <v>0</v>
-      </c>
-      <c r="Z165">
-        <v>0</v>
-      </c>
-      <c r="AA165">
-        <v>0</v>
-      </c>
-      <c r="AB165">
-        <v>0.5</v>
+      <c r="X173">
+        <v>0.5</v>
+      </c>
+      <c r="Y173">
+        <v>0.2</v>
+      </c>
+      <c r="Z173">
+        <v>1</v>
+      </c>
+      <c r="AA173">
+        <v>1</v>
+      </c>
+      <c r="AB173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <v>8</v>
+      </c>
+      <c r="B174">
+        <v>0.8</v>
+      </c>
+      <c r="C174">
+        <v>0.8</v>
+      </c>
+      <c r="D174">
+        <v>0.8</v>
+      </c>
+      <c r="E174">
+        <v>0.8</v>
+      </c>
+      <c r="F174">
+        <v>0.8</v>
+      </c>
+      <c r="G174">
+        <v>0.8</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0.25</v>
+      </c>
+      <c r="K174">
+        <v>0.5</v>
+      </c>
+      <c r="L174">
+        <v>0.8</v>
+      </c>
+      <c r="M174">
+        <v>1</v>
+      </c>
+      <c r="N174">
+        <v>1</v>
+      </c>
+      <c r="P174">
+        <v>0.8</v>
+      </c>
+      <c r="Q174">
+        <v>0.8</v>
+      </c>
+      <c r="R174">
+        <v>0.8</v>
+      </c>
+      <c r="S174">
+        <v>0.8</v>
+      </c>
+      <c r="T174">
+        <v>0.8</v>
+      </c>
+      <c r="U174">
+        <v>0.8</v>
+      </c>
+      <c r="V174">
+        <v>0</v>
+      </c>
+      <c r="W174">
+        <v>0</v>
+      </c>
+      <c r="X174">
+        <v>0.25</v>
+      </c>
+      <c r="Y174">
+        <v>0.5</v>
+      </c>
+      <c r="Z174">
+        <v>0.4</v>
+      </c>
+      <c r="AA174">
+        <v>1</v>
+      </c>
+      <c r="AB174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
+        <v>7</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+      <c r="D175">
+        <v>1</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+      <c r="F175">
+        <v>1</v>
+      </c>
+      <c r="G175">
+        <v>1</v>
+      </c>
+      <c r="H175">
+        <v>0.9</v>
+      </c>
+      <c r="I175">
+        <v>0.5</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0.25</v>
+      </c>
+      <c r="L175">
+        <v>0.5</v>
+      </c>
+      <c r="M175">
+        <v>0.8</v>
+      </c>
+      <c r="N175">
+        <v>1</v>
+      </c>
+      <c r="P175">
+        <v>1</v>
+      </c>
+      <c r="Q175">
+        <v>1</v>
+      </c>
+      <c r="R175">
+        <v>1</v>
+      </c>
+      <c r="S175">
+        <v>1</v>
+      </c>
+      <c r="T175">
+        <v>1</v>
+      </c>
+      <c r="U175">
+        <v>1</v>
+      </c>
+      <c r="V175">
+        <v>0.4</v>
+      </c>
+      <c r="W175">
+        <v>0.3</v>
+      </c>
+      <c r="X175">
+        <v>0</v>
+      </c>
+      <c r="Y175">
+        <v>0.25</v>
+      </c>
+      <c r="Z175">
+        <v>0.5</v>
+      </c>
+      <c r="AA175">
+        <v>0.4</v>
+      </c>
+      <c r="AB175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
+        <v>6</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+      <c r="D176">
+        <v>1</v>
+      </c>
+      <c r="E176">
+        <v>1</v>
+      </c>
+      <c r="F176">
+        <v>1</v>
+      </c>
+      <c r="G176">
+        <v>1</v>
+      </c>
+      <c r="H176">
+        <v>1</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176">
+        <v>0.5</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>0.25</v>
+      </c>
+      <c r="M176">
+        <v>0.5</v>
+      </c>
+      <c r="N176">
+        <v>1</v>
+      </c>
+      <c r="P176">
+        <v>1</v>
+      </c>
+      <c r="Q176">
+        <v>1</v>
+      </c>
+      <c r="R176">
+        <v>1</v>
+      </c>
+      <c r="S176">
+        <v>1</v>
+      </c>
+      <c r="T176">
+        <v>1</v>
+      </c>
+      <c r="U176">
+        <v>1</v>
+      </c>
+      <c r="V176">
+        <v>1</v>
+      </c>
+      <c r="W176">
+        <v>0.9</v>
+      </c>
+      <c r="X176">
+        <v>0.3</v>
+      </c>
+      <c r="Y176">
+        <v>0</v>
+      </c>
+      <c r="Z176">
+        <v>0.25</v>
+      </c>
+      <c r="AA176">
+        <v>0.5</v>
+      </c>
+      <c r="AB176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
+        <v>5</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+      <c r="D177">
+        <v>0.7</v>
+      </c>
+      <c r="E177">
+        <v>0.6</v>
+      </c>
+      <c r="F177">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G177">
+        <v>0.45</v>
+      </c>
+      <c r="H177">
+        <v>0.35</v>
+      </c>
+      <c r="I177">
+        <v>0.8</v>
+      </c>
+      <c r="J177">
+        <v>0.9</v>
+      </c>
+      <c r="K177">
+        <v>0.5</v>
+      </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+      <c r="M177">
+        <v>0.25</v>
+      </c>
+      <c r="N177">
+        <v>1</v>
+      </c>
+      <c r="P177">
+        <v>1</v>
+      </c>
+      <c r="Q177">
+        <v>1</v>
+      </c>
+      <c r="R177">
+        <v>1</v>
+      </c>
+      <c r="S177">
+        <v>0.9</v>
+      </c>
+      <c r="T177">
+        <v>0.9</v>
+      </c>
+      <c r="U177">
+        <v>0.9</v>
+      </c>
+      <c r="V177">
+        <v>0.9</v>
+      </c>
+      <c r="W177">
+        <v>0.8</v>
+      </c>
+      <c r="X177">
+        <v>0.7</v>
+      </c>
+      <c r="Y177">
+        <v>0.3</v>
+      </c>
+      <c r="Z177">
+        <v>0</v>
+      </c>
+      <c r="AA177">
+        <v>0.25</v>
+      </c>
+      <c r="AB177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
+        <v>4</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+      <c r="C178">
+        <v>0.9</v>
+      </c>
+      <c r="D178">
+        <v>0.5</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0.5</v>
+      </c>
+      <c r="K178">
+        <v>0.9</v>
+      </c>
+      <c r="L178">
+        <v>0.5</v>
+      </c>
+      <c r="M178">
+        <v>0.5</v>
+      </c>
+      <c r="N178">
+        <v>0.8</v>
+      </c>
+      <c r="P178">
+        <v>1</v>
+      </c>
+      <c r="Q178">
+        <v>1</v>
+      </c>
+      <c r="R178">
+        <v>0.9</v>
+      </c>
+      <c r="S178">
+        <v>0.5</v>
+      </c>
+      <c r="T178">
+        <v>0.5</v>
+      </c>
+      <c r="U178">
+        <v>0.5</v>
+      </c>
+      <c r="V178">
+        <v>0.5</v>
+      </c>
+      <c r="W178">
+        <v>0.5</v>
+      </c>
+      <c r="X178">
+        <v>0.8</v>
+      </c>
+      <c r="Y178">
+        <v>0.7</v>
+      </c>
+      <c r="Z178">
+        <v>0.3</v>
+      </c>
+      <c r="AA178">
+        <v>0.5</v>
+      </c>
+      <c r="AB178">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
+        <v>3</v>
+      </c>
+      <c r="B179">
+        <v>1</v>
+      </c>
+      <c r="C179">
+        <v>0.9</v>
+      </c>
+      <c r="D179">
+        <v>0.5</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>0.25</v>
+      </c>
+      <c r="L179">
+        <v>0.25</v>
+      </c>
+      <c r="M179">
+        <v>0.8</v>
+      </c>
+      <c r="N179">
+        <v>0.8</v>
+      </c>
+      <c r="P179">
+        <v>1</v>
+      </c>
+      <c r="Q179">
+        <v>1</v>
+      </c>
+      <c r="R179">
+        <v>0.9</v>
+      </c>
+      <c r="S179">
+        <v>0</v>
+      </c>
+      <c r="T179">
+        <v>0</v>
+      </c>
+      <c r="U179">
+        <v>0</v>
+      </c>
+      <c r="V179">
+        <v>0</v>
+      </c>
+      <c r="W179">
+        <v>0</v>
+      </c>
+      <c r="X179">
+        <v>0</v>
+      </c>
+      <c r="Y179">
+        <v>0.7</v>
+      </c>
+      <c r="Z179">
+        <v>0.5</v>
+      </c>
+      <c r="AA179">
+        <v>0.8</v>
+      </c>
+      <c r="AB179">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
+        <v>2</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180">
+        <v>0.9</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180">
+        <v>0.8</v>
+      </c>
+      <c r="P180">
+        <v>1</v>
+      </c>
+      <c r="Q180">
+        <v>1</v>
+      </c>
+      <c r="R180">
+        <v>0</v>
+      </c>
+      <c r="S180">
+        <v>0</v>
+      </c>
+      <c r="T180">
+        <v>0</v>
+      </c>
+      <c r="U180">
+        <v>0</v>
+      </c>
+      <c r="V180">
+        <v>0</v>
+      </c>
+      <c r="W180">
+        <v>0</v>
+      </c>
+      <c r="X180">
+        <v>0</v>
+      </c>
+      <c r="Y180">
+        <v>0.1</v>
+      </c>
+      <c r="Z180">
+        <v>0.3</v>
+      </c>
+      <c r="AA180">
+        <v>0.4</v>
+      </c>
+      <c r="AB180">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:AB15">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:AB30">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:AB45">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48:AB60">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63:AB75">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B78:AB90">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B93:AB105">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -13783,68 +15008,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18:AB30">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33:AB45">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B48:AB60">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B63:AB75">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B78:AB90">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B93:AB105">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B108:AB120">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -13854,6 +15019,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B123:AB135">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B138:AB150">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O153:O165">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -13863,7 +15048,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B138:AB150">
+  <conditionalFormatting sqref="P153:AB165">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -13873,8 +15058,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O153:O165">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="B153:N165">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -13883,23 +15068,23 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P153:AB165">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="B153:AB165">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
+        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B153:N165">
+  <conditionalFormatting sqref="B168:AB180">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
+        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
